--- a/xlsx/FR/footprint_region_FR.xlsx
+++ b/xlsx/FR/footprint_region_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Least</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNR</t>
   </si>
 </sst>
 </file>
@@ -380,61 +386,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.184206148189238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0714817433095866</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.348784579634704</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.61041097500458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.279049745929419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.187363538321149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.398562939022301</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.236014709539468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.366432401567406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.193981266598506</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.232646911761794</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.107221584326379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.170311704313937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.547173451770759</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.0200055695812014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0463527311295723</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0369379648875208</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0194720728976617</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0214258215982614</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00350793483088496</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/footprint_region_FR.xlsx
+++ b/xlsx/FR/footprint_region_FR.xlsx
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184206148189238</v>
+        <v>0.197620178866091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0714817433095866</v>
+        <v>0.0916232548993749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.348784579634704</v>
+        <v>0.358269444155386</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61041097500458</v>
+        <v>0.611645394910647</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.279049745929419</v>
+        <v>0.276414141593472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187363538321149</v>
+        <v>0.20057037365688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.398562939022301</v>
+        <v>0.377221635000682</v>
       </c>
       <c r="E3" t="n">
-        <v>0.236014709539468</v>
+        <v>0.242467006867223</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.366432401567406</v>
+        <v>0.326640638961951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193981266598506</v>
+        <v>0.224996483046605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232646911761794</v>
+        <v>0.237268971596656</v>
       </c>
       <c r="E4" t="n">
-        <v>0.107221584326379</v>
+        <v>0.102302955383402</v>
       </c>
     </row>
     <row r="5">
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.170311704313937</v>
+        <v>0.199325040578486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.547173451770759</v>
+        <v>0.48280988839714</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0200055695812014</v>
+        <v>0.0272399492472763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0463527311295723</v>
+        <v>0.043584642838728</v>
       </c>
     </row>
     <row r="6">
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0369379648875208</v>
+        <v>0.0340195667156311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0194720728976617</v>
+        <v>0.0224209428097421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0214258215982614</v>
+        <v>0.0188191020673853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00350793483088496</v>
+        <v>0.00968861772617374</v>
       </c>
     </row>
   </sheetData>
